--- a/Data/MOESM9.xlsx
+++ b/Data/MOESM9.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10402"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\athom\Dropbox\Amy's Stuff\Ix Kuku'il IFD Paper\For Submission to JAMT\Reviews and Revisions\Reviews and Revisions Round 2\Tables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yesenialanda/Repos/DataAnalysisRep_Thomspon/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{578AB366-F417-46C3-9D01-E49B44B7226F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3F74CE6-3A67-F940-9CF2-F16343B508B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23880" yWindow="-3900" windowWidth="30960" windowHeight="16920" xr2:uid="{5D37B431-8EE9-4457-8C1E-C0830E790D75}"/>
+    <workbookView xWindow="37020" yWindow="1840" windowWidth="31140" windowHeight="19120" xr2:uid="{5D37B431-8EE9-4457-8C1E-C0830E790D75}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="160">
   <si>
     <t>Site</t>
   </si>
@@ -560,12 +560,24 @@
   <si>
     <t>Human Tooth</t>
   </si>
+  <si>
+    <t>the one for the northern hemishpere and more recnt one</t>
+  </si>
+  <si>
+    <t>told oxcal to give probability density</t>
+  </si>
+  <si>
+    <t>summing gives you the probability density</t>
+  </si>
+  <si>
+    <t>sum of all dates+N14</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -632,15 +644,21 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="31">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -1048,6 +1066,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1056,244 +1083,310 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="2" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="2" borderId="9" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="9" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="9" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="9" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="24" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1318,9 +1411,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1358,7 +1451,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1464,7 +1557,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1606,7 +1699,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1614,61 +1707,59 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36616893-BAEA-4A36-A47D-3BE9D532EC57}">
-  <dimension ref="A1:K81"/>
+  <dimension ref="A1:N81"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection sqref="A1:K20"/>
+    <sheetView tabSelected="1" topLeftCell="A51" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E73" sqref="E73:G81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="12"/>
-    <col min="2" max="2" width="10.140625" style="12" customWidth="1"/>
-    <col min="3" max="7" width="9.140625" style="12"/>
-    <col min="8" max="8" width="20.5703125" style="12" customWidth="1"/>
-    <col min="9" max="9" width="19" style="12" customWidth="1"/>
-    <col min="10" max="10" width="17.85546875" style="80" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="12" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="12"/>
+    <col min="2" max="2" width="10.1640625" customWidth="1"/>
+    <col min="5" max="7" width="9.1640625" style="79"/>
+    <col min="8" max="8" width="20.5" customWidth="1"/>
+    <col min="9" max="9" width="19" customWidth="1"/>
+    <col min="10" max="10" width="17.83203125" style="52" customWidth="1"/>
+    <col min="11" max="11" width="14.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="51.75" thickBot="1">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:14" ht="43" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="I1" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="J1" s="17" t="s">
+      <c r="J1" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="20" t="s">
+      <c r="K1" s="18" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A2" s="21" t="s">
+    <row r="2" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="19" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="7">
@@ -1680,13 +1771,13 @@
       <c r="D2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F2" s="55">
         <v>2116</v>
       </c>
-      <c r="G2" s="7">
+      <c r="G2" s="55">
         <v>26</v>
       </c>
       <c r="H2" s="7" t="s">
@@ -1695,14 +1786,14 @@
       <c r="I2" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="J2" s="23" t="s">
-        <v>140</v>
-      </c>
-      <c r="K2" s="24" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="J2" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="K2" s="21" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
         <v>13</v>
       </c>
@@ -1713,13 +1804,13 @@
       <c r="D3" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="56">
         <v>4583</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="56">
         <v>2065</v>
       </c>
-      <c r="G3" s="9">
+      <c r="G3" s="56">
         <v>20</v>
       </c>
       <c r="H3" s="9" t="s">
@@ -1728,136 +1819,142 @@
       <c r="I3" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="J3" s="25" t="s">
+      <c r="J3" s="22" t="s">
         <v>15</v>
       </c>
       <c r="K3" s="11"/>
     </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="26" t="s">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="27">
+      <c r="B4" s="24">
         <v>59</v>
       </c>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27" t="s">
+      <c r="C4" s="24"/>
+      <c r="D4" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="27">
+      <c r="E4" s="57">
         <v>2645</v>
       </c>
-      <c r="F4" s="27">
+      <c r="F4" s="57">
         <v>1605</v>
       </c>
-      <c r="G4" s="27">
+      <c r="G4" s="57">
         <v>20</v>
       </c>
-      <c r="H4" s="27" t="s">
+      <c r="H4" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="I4" s="27" t="s">
+      <c r="I4" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="J4" s="27" t="s">
-        <v>140</v>
-      </c>
-      <c r="K4" s="28"/>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="26" t="s">
+      <c r="J4" s="24" t="s">
+        <v>140</v>
+      </c>
+      <c r="K4" s="25"/>
+      <c r="L4" s="80" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="27">
+      <c r="B5" s="24">
         <v>59</v>
       </c>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27" t="s">
+      <c r="C5" s="24"/>
+      <c r="D5" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="27">
+      <c r="E5" s="57">
         <v>2644</v>
       </c>
-      <c r="F5" s="27">
+      <c r="F5" s="57">
         <v>1490</v>
       </c>
-      <c r="G5" s="27">
+      <c r="G5" s="57">
         <v>20</v>
       </c>
-      <c r="H5" s="27" t="s">
+      <c r="H5" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="I5" s="27" t="s">
+      <c r="I5" s="24" t="s">
         <v>128</v>
       </c>
-      <c r="J5" s="27" t="s">
-        <v>140</v>
-      </c>
-      <c r="K5" s="28"/>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="26" t="s">
+      <c r="J5" s="24" t="s">
+        <v>140</v>
+      </c>
+      <c r="K5" s="25"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="27">
+      <c r="B6" s="24">
         <v>59</v>
       </c>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27" t="s">
+      <c r="C6" s="24"/>
+      <c r="D6" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="27">
+      <c r="E6" s="57">
         <v>4076</v>
       </c>
-      <c r="F6" s="27">
+      <c r="F6" s="57">
         <v>1220</v>
       </c>
-      <c r="G6" s="27">
+      <c r="G6" s="57">
         <v>20</v>
       </c>
-      <c r="H6" s="27" t="s">
+      <c r="H6" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="I6" s="27" t="s">
+      <c r="I6" s="24" t="s">
         <v>119</v>
       </c>
-      <c r="J6" s="27" t="s">
-        <v>140</v>
-      </c>
-      <c r="K6" s="28"/>
-    </row>
-    <row r="7" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A7" s="13" t="s">
+      <c r="J6" s="24" t="s">
+        <v>140</v>
+      </c>
+      <c r="K6" s="25"/>
+      <c r="L6" s="80" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="14">
+      <c r="B7" s="13">
         <v>59</v>
       </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14" t="s">
+      <c r="C7" s="13"/>
+      <c r="D7" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="14">
+      <c r="E7" s="58">
         <v>4075</v>
       </c>
-      <c r="F7" s="14">
+      <c r="F7" s="58">
         <v>995</v>
       </c>
-      <c r="G7" s="14">
+      <c r="G7" s="58">
         <v>20</v>
       </c>
-      <c r="H7" s="14" t="s">
+      <c r="H7" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="I7" s="14" t="s">
+      <c r="I7" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="J7" s="14" t="s">
-        <v>140</v>
-      </c>
-      <c r="K7" s="15"/>
-    </row>
-    <row r="8" spans="1:11">
+      <c r="J7" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="K7" s="14"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
         <v>8</v>
       </c>
@@ -1868,13 +1965,13 @@
       <c r="D8" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="29">
+      <c r="E8" s="83">
         <v>57042</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="56">
         <v>1960</v>
       </c>
-      <c r="G8" s="9">
+      <c r="G8" s="56">
         <v>20</v>
       </c>
       <c r="H8" s="9" t="s">
@@ -1889,42 +1986,45 @@
       <c r="K8" s="11" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A9" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="31">
+      <c r="M8" s="101" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="27">
         <v>20</v>
       </c>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="31">
+      <c r="C9" s="27"/>
+      <c r="D9" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="59">
         <v>56366</v>
       </c>
-      <c r="F9" s="31">
+      <c r="F9" s="59">
         <v>1865</v>
       </c>
-      <c r="G9" s="31">
+      <c r="G9" s="59">
         <v>15</v>
       </c>
-      <c r="H9" s="31" t="s">
+      <c r="H9" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="I9" s="31" t="s">
+      <c r="I9" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="J9" s="31" t="s">
-        <v>140</v>
-      </c>
-      <c r="K9" s="32" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A10" s="33" t="s">
+      <c r="J9" s="27" t="s">
+        <v>140</v>
+      </c>
+      <c r="K9" s="28" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="29" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="2">
@@ -1936,13 +2036,13 @@
       <c r="D10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="60">
         <v>8130</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="60">
         <v>1900</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10" s="60">
         <v>20</v>
       </c>
       <c r="H10" s="2" t="s">
@@ -1954,9 +2054,9 @@
       <c r="J10" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="K10" s="34"/>
-    </row>
-    <row r="11" spans="1:11">
+      <c r="K10" s="30"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
         <v>8</v>
       </c>
@@ -1967,13 +2067,13 @@
       <c r="D11" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="35">
+      <c r="E11" s="61">
         <v>105392</v>
       </c>
-      <c r="F11" s="35">
+      <c r="F11" s="61">
         <v>1845</v>
       </c>
-      <c r="G11" s="9">
+      <c r="G11" s="56">
         <v>15</v>
       </c>
       <c r="H11" s="9" t="s">
@@ -1989,106 +2089,109 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="27" t="s">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="E12" s="36">
+      <c r="C12" s="24"/>
+      <c r="D12" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="62">
         <v>105390</v>
       </c>
-      <c r="F12" s="36">
+      <c r="F12" s="62">
         <v>1740</v>
       </c>
-      <c r="G12" s="27">
+      <c r="G12" s="57">
         <v>15</v>
       </c>
-      <c r="H12" s="27" t="s">
+      <c r="H12" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="I12" s="27" t="s">
+      <c r="I12" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="J12" s="27" t="s">
-        <v>140</v>
-      </c>
-      <c r="K12" s="28" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="27" t="s">
+      <c r="J12" s="24" t="s">
+        <v>140</v>
+      </c>
+      <c r="K12" s="25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="E13" s="36">
+      <c r="C13" s="24"/>
+      <c r="D13" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="62">
         <v>105388</v>
       </c>
-      <c r="F13" s="36">
+      <c r="F13" s="62">
         <v>1605</v>
       </c>
-      <c r="G13" s="27">
+      <c r="G13" s="57">
         <v>15</v>
       </c>
-      <c r="H13" s="27" t="s">
+      <c r="H13" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="I13" s="27" t="s">
+      <c r="I13" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="J13" s="27" t="s">
-        <v>140</v>
-      </c>
-      <c r="K13" s="28" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A14" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" s="31" t="s">
+      <c r="J13" s="24" t="s">
+        <v>140</v>
+      </c>
+      <c r="K13" s="25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="31"/>
-      <c r="D14" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="E14" s="37">
+      <c r="C14" s="27"/>
+      <c r="D14" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="63">
         <v>105391</v>
       </c>
-      <c r="F14" s="37">
+      <c r="F14" s="63">
         <v>1465</v>
       </c>
-      <c r="G14" s="31">
+      <c r="G14" s="59">
         <v>15</v>
       </c>
-      <c r="H14" s="31" t="s">
+      <c r="H14" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="I14" s="31" t="s">
+      <c r="I14" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="J14" s="31" t="s">
-        <v>140</v>
-      </c>
-      <c r="K14" s="32" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
+      <c r="J14" s="27" t="s">
+        <v>140</v>
+      </c>
+      <c r="K14" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="N14" s="102" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
         <v>8</v>
       </c>
@@ -2099,13 +2202,13 @@
       <c r="D15" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="35">
+      <c r="E15" s="61">
         <v>8122</v>
       </c>
-      <c r="F15" s="35">
+      <c r="F15" s="61">
         <v>1835</v>
       </c>
-      <c r="G15" s="9">
+      <c r="G15" s="56">
         <v>20</v>
       </c>
       <c r="H15" s="9" t="s">
@@ -2119,107 +2222,107 @@
       </c>
       <c r="K15" s="11"/>
     </row>
-    <row r="16" spans="1:11">
-      <c r="A16" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="B16" s="27">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A16" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="24">
         <v>18</v>
       </c>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="E16" s="36">
+      <c r="C16" s="24"/>
+      <c r="D16" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" s="62">
         <v>105381</v>
       </c>
-      <c r="F16" s="36">
+      <c r="F16" s="62">
         <v>1775</v>
       </c>
-      <c r="G16" s="27">
+      <c r="G16" s="57">
         <v>15</v>
       </c>
-      <c r="H16" s="27" t="s">
+      <c r="H16" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="I16" s="27" t="s">
+      <c r="I16" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="J16" s="27" t="s">
-        <v>140</v>
-      </c>
-      <c r="K16" s="28" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
-      <c r="A17" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="B17" s="27">
+      <c r="J16" s="24" t="s">
+        <v>140</v>
+      </c>
+      <c r="K16" s="25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="24">
         <v>18</v>
       </c>
-      <c r="C17" s="27"/>
-      <c r="D17" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="E17" s="36">
+      <c r="C17" s="24"/>
+      <c r="D17" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" s="62">
         <v>105386</v>
       </c>
-      <c r="F17" s="36">
+      <c r="F17" s="62">
         <v>1770</v>
       </c>
-      <c r="G17" s="27">
+      <c r="G17" s="57">
         <v>15</v>
       </c>
-      <c r="H17" s="27" t="s">
+      <c r="H17" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="I17" s="27" t="s">
+      <c r="I17" s="24" t="s">
         <v>95</v>
       </c>
-      <c r="J17" s="27" t="s">
-        <v>140</v>
-      </c>
-      <c r="K17" s="28" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A18" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B18" s="14">
+      <c r="J17" s="24" t="s">
+        <v>140</v>
+      </c>
+      <c r="K17" s="25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" s="13">
         <v>18</v>
       </c>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="E18" s="38">
+      <c r="C18" s="13"/>
+      <c r="D18" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" s="64">
         <v>105385</v>
       </c>
-      <c r="F18" s="38">
+      <c r="F18" s="64">
         <v>1740</v>
       </c>
-      <c r="G18" s="14">
+      <c r="G18" s="58">
         <v>15</v>
       </c>
-      <c r="H18" s="14" t="s">
+      <c r="H18" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="I18" s="14" t="s">
+      <c r="I18" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="J18" s="14" t="s">
-        <v>140</v>
-      </c>
-      <c r="K18" s="15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
-      <c r="A19" s="21" t="s">
+      <c r="J18" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="K18" s="14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" s="19" t="s">
         <v>8</v>
       </c>
       <c r="B19" s="7" t="s">
@@ -2231,13 +2334,13 @@
       <c r="D19" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E19" s="39" t="s">
+      <c r="E19" s="84" t="s">
         <v>152</v>
       </c>
-      <c r="F19" s="8">
+      <c r="F19" s="65">
         <v>1805</v>
       </c>
-      <c r="G19" s="8">
+      <c r="G19" s="65">
         <v>25</v>
       </c>
       <c r="H19" s="8" t="s">
@@ -2246,13 +2349,13 @@
       <c r="I19" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="J19" s="23" t="s">
-        <v>140</v>
-      </c>
-      <c r="K19" s="24"/>
-    </row>
-    <row r="20" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A20" s="26" t="s">
+      <c r="J19" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="K19" s="21"/>
+    </row>
+    <row r="20" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="23" t="s">
         <v>8</v>
       </c>
       <c r="B20" s="6" t="s">
@@ -2264,13 +2367,13 @@
       <c r="D20" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E20" s="40" t="s">
+      <c r="E20" s="85" t="s">
         <v>150</v>
       </c>
-      <c r="F20" s="5">
+      <c r="F20" s="66">
         <v>1775</v>
       </c>
-      <c r="G20" s="5">
+      <c r="G20" s="66">
         <v>25</v>
       </c>
       <c r="H20" s="5" t="s">
@@ -2279,12 +2382,12 @@
       <c r="I20" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="J20" s="27" t="s">
-        <v>140</v>
-      </c>
-      <c r="K20" s="28"/>
-    </row>
-    <row r="21" spans="1:11">
+      <c r="J20" s="24" t="s">
+        <v>140</v>
+      </c>
+      <c r="K20" s="25"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
         <v>8</v>
       </c>
@@ -2295,13 +2398,13 @@
       <c r="D21" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E21" s="41">
+      <c r="E21" s="86">
         <v>87895</v>
       </c>
-      <c r="F21" s="35">
+      <c r="F21" s="61">
         <v>1775</v>
       </c>
-      <c r="G21" s="9">
+      <c r="G21" s="56">
         <v>20</v>
       </c>
       <c r="H21" s="9" t="s">
@@ -2317,40 +2420,40 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A22" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B22" s="14">
+    <row r="22" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" s="13">
         <v>4</v>
       </c>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="E22" s="1">
+      <c r="C22" s="13"/>
+      <c r="D22" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22" s="68">
         <v>87894</v>
       </c>
-      <c r="F22" s="38">
+      <c r="F22" s="64">
         <v>1565</v>
       </c>
-      <c r="G22" s="14">
+      <c r="G22" s="58">
         <v>20</v>
       </c>
-      <c r="H22" s="14" t="s">
+      <c r="H22" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="I22" s="14" t="s">
+      <c r="I22" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="J22" s="14" t="s">
-        <v>140</v>
-      </c>
-      <c r="K22" s="15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11">
+      <c r="J22" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="K22" s="14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
         <v>8</v>
       </c>
@@ -2361,13 +2464,13 @@
       <c r="D23" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E23" s="35">
+      <c r="E23" s="61">
         <v>42824</v>
       </c>
-      <c r="F23" s="35">
+      <c r="F23" s="61">
         <v>1775</v>
       </c>
-      <c r="G23" s="9">
+      <c r="G23" s="56">
         <v>15</v>
       </c>
       <c r="H23" s="9" t="s">
@@ -2383,73 +2486,73 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
-      <c r="A24" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="B24" s="27">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" s="24">
         <v>21</v>
       </c>
-      <c r="C24" s="27"/>
-      <c r="D24" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="E24" s="36">
+      <c r="C24" s="24"/>
+      <c r="D24" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="E24" s="62">
         <v>42810</v>
       </c>
-      <c r="F24" s="36">
+      <c r="F24" s="62">
         <v>1365</v>
       </c>
-      <c r="G24" s="27">
+      <c r="G24" s="57">
         <v>15</v>
       </c>
-      <c r="H24" s="27" t="s">
+      <c r="H24" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="I24" s="27" t="s">
+      <c r="I24" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="J24" s="27" t="s">
-        <v>140</v>
-      </c>
-      <c r="K24" s="28" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A25" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="B25" s="31">
+      <c r="J24" s="24" t="s">
+        <v>140</v>
+      </c>
+      <c r="K24" s="25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" s="27">
         <v>21</v>
       </c>
-      <c r="C25" s="31"/>
-      <c r="D25" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="E25" s="37">
+      <c r="C25" s="27"/>
+      <c r="D25" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="E25" s="63">
         <v>42811</v>
       </c>
-      <c r="F25" s="37">
+      <c r="F25" s="63">
         <v>1275</v>
       </c>
-      <c r="G25" s="31">
+      <c r="G25" s="59">
         <v>15</v>
       </c>
-      <c r="H25" s="31" t="s">
+      <c r="H25" s="27" t="s">
         <v>93</v>
       </c>
-      <c r="I25" s="31" t="s">
+      <c r="I25" s="27" t="s">
         <v>94</v>
       </c>
-      <c r="J25" s="31" t="s">
-        <v>140</v>
-      </c>
-      <c r="K25" s="32" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11">
+      <c r="J25" s="27" t="s">
+        <v>140</v>
+      </c>
+      <c r="K25" s="28" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
         <v>8</v>
       </c>
@@ -2462,13 +2565,13 @@
       <c r="D26" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E26" s="42" t="s">
+      <c r="E26" s="87" t="s">
         <v>19</v>
       </c>
-      <c r="F26" s="9">
+      <c r="F26" s="56">
         <v>1760</v>
       </c>
-      <c r="G26" s="9">
+      <c r="G26" s="56">
         <v>26</v>
       </c>
       <c r="H26" s="9" t="s">
@@ -2484,168 +2587,168 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
-      <c r="A27" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="B27" s="27">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A27" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27" s="24">
         <v>25</v>
       </c>
-      <c r="C27" s="27" t="s">
+      <c r="C27" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D27" s="27" t="s">
+      <c r="D27" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="E27" s="43" t="s">
+      <c r="E27" s="88" t="s">
         <v>20</v>
       </c>
-      <c r="F27" s="27">
+      <c r="F27" s="57">
         <v>1668</v>
       </c>
-      <c r="G27" s="27">
+      <c r="G27" s="57">
         <v>26</v>
       </c>
-      <c r="H27" s="27" t="s">
+      <c r="H27" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="I27" s="27" t="s">
+      <c r="I27" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="J27" s="27" t="s">
-        <v>140</v>
-      </c>
-      <c r="K27" s="28" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11">
-      <c r="A28" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="B28" s="27">
+      <c r="J27" s="24" t="s">
+        <v>140</v>
+      </c>
+      <c r="K27" s="25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A28" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" s="24">
         <v>25</v>
       </c>
-      <c r="C28" s="27" t="s">
+      <c r="C28" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D28" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="E28" s="27">
+      <c r="D28" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="E28" s="57">
         <v>57043</v>
       </c>
-      <c r="F28" s="27">
+      <c r="F28" s="57">
         <v>1485</v>
       </c>
-      <c r="G28" s="27">
+      <c r="G28" s="57">
         <v>15</v>
       </c>
-      <c r="H28" s="27" t="s">
+      <c r="H28" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="I28" s="27" t="s">
+      <c r="I28" s="24" t="s">
         <v>98</v>
       </c>
-      <c r="J28" s="27" t="s">
-        <v>140</v>
-      </c>
-      <c r="K28" s="28" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11">
-      <c r="A29" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="B29" s="27">
+      <c r="J28" s="24" t="s">
+        <v>140</v>
+      </c>
+      <c r="K28" s="25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A29" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29" s="24">
         <v>25</v>
       </c>
-      <c r="C29" s="27" t="s">
+      <c r="C29" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D29" s="27" t="s">
+      <c r="D29" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="E29" s="43" t="s">
+      <c r="E29" s="88" t="s">
         <v>21</v>
       </c>
-      <c r="F29" s="27">
+      <c r="F29" s="57">
         <v>1333</v>
       </c>
-      <c r="G29" s="27">
+      <c r="G29" s="57">
         <v>26</v>
       </c>
-      <c r="H29" s="27" t="s">
+      <c r="H29" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="I29" s="27" t="s">
+      <c r="I29" s="24" t="s">
         <v>99</v>
       </c>
-      <c r="J29" s="27" t="s">
-        <v>140</v>
-      </c>
-      <c r="K29" s="28" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A30" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="B30" s="31">
+      <c r="J29" s="24" t="s">
+        <v>140</v>
+      </c>
+      <c r="K29" s="25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30" s="27">
         <v>25</v>
       </c>
-      <c r="C30" s="31" t="s">
+      <c r="C30" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="D30" s="31" t="s">
+      <c r="D30" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="E30" s="31">
+      <c r="E30" s="59">
         <v>6738</v>
       </c>
-      <c r="F30" s="31">
+      <c r="F30" s="59">
         <v>1330</v>
       </c>
-      <c r="G30" s="31">
+      <c r="G30" s="59">
         <v>20</v>
       </c>
-      <c r="H30" s="31" t="s">
+      <c r="H30" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="I30" s="31" t="s">
+      <c r="I30" s="27" t="s">
         <v>99</v>
       </c>
-      <c r="J30" s="31" t="s">
+      <c r="J30" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="K30" s="32"/>
-    </row>
-    <row r="31" spans="1:11">
+      <c r="K30" s="28"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B31" s="44" t="s">
+      <c r="B31" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="C31" s="44"/>
-      <c r="D31" s="44" t="s">
+      <c r="C31" s="31"/>
+      <c r="D31" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="E31" s="45" t="s">
+      <c r="E31" s="89" t="s">
         <v>23</v>
       </c>
-      <c r="F31" s="46">
+      <c r="F31" s="67">
         <v>1758</v>
       </c>
-      <c r="G31" s="46">
+      <c r="G31" s="67">
         <v>25</v>
       </c>
-      <c r="H31" s="46" t="s">
+      <c r="H31" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="I31" s="46" t="s">
+      <c r="I31" s="32" t="s">
         <v>96</v>
       </c>
       <c r="J31" s="9" t="s">
@@ -2655,8 +2758,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="1:11">
-      <c r="A32" s="26" t="s">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A32" s="23" t="s">
         <v>8</v>
       </c>
       <c r="B32" s="6" t="s">
@@ -2666,13 +2769,13 @@
       <c r="D32" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E32" s="40" t="s">
+      <c r="E32" s="85" t="s">
         <v>24</v>
       </c>
-      <c r="F32" s="5">
+      <c r="F32" s="66">
         <v>1703</v>
       </c>
-      <c r="G32" s="5">
+      <c r="G32" s="66">
         <v>28</v>
       </c>
       <c r="H32" s="5" t="s">
@@ -2681,15 +2784,15 @@
       <c r="I32" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="J32" s="27" t="s">
-        <v>140</v>
-      </c>
-      <c r="K32" s="28" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11">
-      <c r="A33" s="26" t="s">
+      <c r="J32" s="24" t="s">
+        <v>140</v>
+      </c>
+      <c r="K32" s="25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A33" s="23" t="s">
         <v>8</v>
       </c>
       <c r="B33" s="6" t="s">
@@ -2699,13 +2802,13 @@
       <c r="D33" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E33" s="40" t="s">
+      <c r="E33" s="85" t="s">
         <v>25</v>
       </c>
-      <c r="F33" s="5">
+      <c r="F33" s="66">
         <v>1688</v>
       </c>
-      <c r="G33" s="5">
+      <c r="G33" s="66">
         <v>28</v>
       </c>
       <c r="H33" s="5" t="s">
@@ -2714,15 +2817,15 @@
       <c r="I33" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="J33" s="27" t="s">
-        <v>140</v>
-      </c>
-      <c r="K33" s="28" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11">
-      <c r="A34" s="26" t="s">
+      <c r="J33" s="24" t="s">
+        <v>140</v>
+      </c>
+      <c r="K33" s="25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A34" s="23" t="s">
         <v>8</v>
       </c>
       <c r="B34" s="6" t="s">
@@ -2732,13 +2835,13 @@
       <c r="D34" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E34" s="40" t="s">
+      <c r="E34" s="85" t="s">
         <v>26</v>
       </c>
-      <c r="F34" s="5">
+      <c r="F34" s="66">
         <v>1550</v>
       </c>
-      <c r="G34" s="5">
+      <c r="G34" s="66">
         <v>24</v>
       </c>
       <c r="H34" s="5" t="s">
@@ -2747,15 +2850,15 @@
       <c r="I34" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="J34" s="27" t="s">
-        <v>140</v>
-      </c>
-      <c r="K34" s="28" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11">
-      <c r="A35" s="26" t="s">
+      <c r="J34" s="24" t="s">
+        <v>140</v>
+      </c>
+      <c r="K34" s="25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A35" s="23" t="s">
         <v>8</v>
       </c>
       <c r="B35" s="6" t="s">
@@ -2765,13 +2868,13 @@
       <c r="D35" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E35" s="40" t="s">
+      <c r="E35" s="85" t="s">
         <v>27</v>
       </c>
-      <c r="F35" s="5">
+      <c r="F35" s="66">
         <v>1534</v>
       </c>
-      <c r="G35" s="5">
+      <c r="G35" s="66">
         <v>28</v>
       </c>
       <c r="H35" s="5" t="s">
@@ -2780,31 +2883,31 @@
       <c r="I35" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="J35" s="27" t="s">
-        <v>140</v>
-      </c>
-      <c r="K35" s="28" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A36" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B36" s="47" t="s">
+      <c r="J35" s="24" t="s">
+        <v>140</v>
+      </c>
+      <c r="K35" s="25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B36" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="C36" s="47"/>
-      <c r="D36" s="47" t="s">
+      <c r="C36" s="33"/>
+      <c r="D36" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="E36" s="48" t="s">
+      <c r="E36" s="90" t="s">
         <v>141</v>
       </c>
-      <c r="F36" s="1">
+      <c r="F36" s="68">
         <v>1510</v>
       </c>
-      <c r="G36" s="1">
+      <c r="G36" s="68">
         <v>20</v>
       </c>
       <c r="H36" s="1" t="s">
@@ -2813,328 +2916,328 @@
       <c r="I36" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="J36" s="14" t="s">
-        <v>140</v>
-      </c>
-      <c r="K36" s="15"/>
-    </row>
-    <row r="37" spans="1:11">
-      <c r="A37" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="B37" s="23" t="s">
+      <c r="J36" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="K36" s="14"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A37" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B37" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="C37" s="23" t="s">
+      <c r="C37" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="D37" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="E37" s="49">
+      <c r="D37" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="E37" s="91">
         <v>91198</v>
       </c>
-      <c r="F37" s="50">
+      <c r="F37" s="69">
         <v>1755</v>
       </c>
-      <c r="G37" s="23">
+      <c r="G37" s="70">
         <v>15</v>
       </c>
-      <c r="H37" s="23" t="s">
+      <c r="H37" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="I37" s="23" t="s">
+      <c r="I37" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="J37" s="23" t="s">
-        <v>140</v>
-      </c>
-      <c r="K37" s="24" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11">
-      <c r="A38" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="B38" s="27" t="s">
+      <c r="J37" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="K37" s="21" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A38" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B38" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="C38" s="27" t="s">
+      <c r="C38" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="D38" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="E38" s="51">
+      <c r="D38" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="E38" s="92">
         <v>91207</v>
       </c>
-      <c r="F38" s="36">
+      <c r="F38" s="62">
         <v>1710</v>
       </c>
-      <c r="G38" s="27">
+      <c r="G38" s="57">
         <v>15</v>
       </c>
-      <c r="H38" s="27" t="s">
+      <c r="H38" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="I38" s="27" t="s">
+      <c r="I38" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="J38" s="27" t="s">
-        <v>140</v>
-      </c>
-      <c r="K38" s="28" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11">
-      <c r="A39" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="B39" s="27" t="s">
+      <c r="J38" s="24" t="s">
+        <v>140</v>
+      </c>
+      <c r="K38" s="25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A39" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B39" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="C39" s="27" t="s">
+      <c r="C39" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="D39" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="E39" s="51">
+      <c r="D39" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="E39" s="92">
         <v>91199</v>
       </c>
-      <c r="F39" s="36">
+      <c r="F39" s="62">
         <v>1700</v>
       </c>
-      <c r="G39" s="27">
+      <c r="G39" s="57">
         <v>15</v>
       </c>
-      <c r="H39" s="27" t="s">
+      <c r="H39" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="I39" s="27" t="s">
+      <c r="I39" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="J39" s="27" t="s">
-        <v>140</v>
-      </c>
-      <c r="K39" s="28" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11">
-      <c r="A40" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="B40" s="27" t="s">
+      <c r="J39" s="24" t="s">
+        <v>140</v>
+      </c>
+      <c r="K39" s="25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A40" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B40" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="C40" s="27" t="s">
+      <c r="C40" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="D40" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="E40" s="51">
+      <c r="D40" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="E40" s="92">
         <v>91204</v>
       </c>
-      <c r="F40" s="36">
+      <c r="F40" s="62">
         <v>1625</v>
       </c>
-      <c r="G40" s="27">
+      <c r="G40" s="57">
         <v>15</v>
       </c>
-      <c r="H40" s="27" t="s">
+      <c r="H40" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="I40" s="27" t="s">
+      <c r="I40" s="24" t="s">
         <v>106</v>
       </c>
-      <c r="J40" s="27" t="s">
-        <v>140</v>
-      </c>
-      <c r="K40" s="28" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11">
-      <c r="A41" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="B41" s="27" t="s">
+      <c r="J40" s="24" t="s">
+        <v>140</v>
+      </c>
+      <c r="K40" s="25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A41" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B41" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="C41" s="27" t="s">
+      <c r="C41" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="D41" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="E41" s="51">
+      <c r="D41" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="E41" s="92">
         <v>91200</v>
       </c>
-      <c r="F41" s="36">
+      <c r="F41" s="62">
         <v>1610</v>
       </c>
-      <c r="G41" s="27">
+      <c r="G41" s="57">
         <v>15</v>
       </c>
-      <c r="H41" s="27" t="s">
+      <c r="H41" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="I41" s="27" t="s">
+      <c r="I41" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="J41" s="27" t="s">
-        <v>140</v>
-      </c>
-      <c r="K41" s="28" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11">
-      <c r="A42" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="B42" s="27" t="s">
+      <c r="J41" s="24" t="s">
+        <v>140</v>
+      </c>
+      <c r="K41" s="25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A42" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B42" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="C42" s="27" t="s">
+      <c r="C42" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="D42" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="E42" s="36">
+      <c r="D42" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="E42" s="62">
         <v>87161</v>
       </c>
-      <c r="F42" s="36">
+      <c r="F42" s="62">
         <v>1605</v>
       </c>
-      <c r="G42" s="27">
+      <c r="G42" s="57">
         <v>15</v>
       </c>
-      <c r="H42" s="27" t="s">
+      <c r="H42" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="I42" s="27" t="s">
+      <c r="I42" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="J42" s="27" t="s">
-        <v>140</v>
-      </c>
-      <c r="K42" s="28" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11">
-      <c r="A43" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="B43" s="27" t="s">
+      <c r="J42" s="24" t="s">
+        <v>140</v>
+      </c>
+      <c r="K42" s="25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A43" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B43" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="C43" s="27" t="s">
+      <c r="C43" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="D43" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="E43" s="36">
+      <c r="D43" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="E43" s="62">
         <v>87160</v>
       </c>
-      <c r="F43" s="36">
+      <c r="F43" s="62">
         <v>1595</v>
       </c>
-      <c r="G43" s="27">
+      <c r="G43" s="57">
         <v>15</v>
       </c>
-      <c r="H43" s="27" t="s">
+      <c r="H43" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="I43" s="27" t="s">
+      <c r="I43" s="24" t="s">
         <v>108</v>
       </c>
-      <c r="J43" s="27" t="s">
-        <v>140</v>
-      </c>
-      <c r="K43" s="28" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11">
-      <c r="A44" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="B44" s="27" t="s">
+      <c r="J43" s="24" t="s">
+        <v>140</v>
+      </c>
+      <c r="K43" s="25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A44" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B44" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="C44" s="27" t="s">
+      <c r="C44" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="D44" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="E44" s="51">
+      <c r="D44" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="E44" s="92">
         <v>91201</v>
       </c>
-      <c r="F44" s="36">
+      <c r="F44" s="62">
         <v>1585</v>
       </c>
-      <c r="G44" s="27">
+      <c r="G44" s="57">
         <v>15</v>
       </c>
-      <c r="H44" s="27" t="s">
+      <c r="H44" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="I44" s="27" t="s">
+      <c r="I44" s="24" t="s">
         <v>108</v>
       </c>
-      <c r="J44" s="27" t="s">
-        <v>140</v>
-      </c>
-      <c r="K44" s="28" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11">
-      <c r="A45" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="B45" s="27" t="s">
+      <c r="J44" s="24" t="s">
+        <v>140</v>
+      </c>
+      <c r="K44" s="25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A45" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B45" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="C45" s="27" t="s">
+      <c r="C45" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="D45" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="E45" s="51">
+      <c r="D45" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="E45" s="92">
         <v>91206</v>
       </c>
-      <c r="F45" s="36">
+      <c r="F45" s="62">
         <v>1580</v>
       </c>
-      <c r="G45" s="27">
+      <c r="G45" s="57">
         <v>15</v>
       </c>
-      <c r="H45" s="27" t="s">
+      <c r="H45" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="I45" s="27" t="s">
+      <c r="I45" s="24" t="s">
         <v>108</v>
       </c>
-      <c r="J45" s="27" t="s">
-        <v>140</v>
-      </c>
-      <c r="K45" s="28" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11">
-      <c r="A46" s="26" t="s">
+      <c r="J45" s="24" t="s">
+        <v>140</v>
+      </c>
+      <c r="K45" s="25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A46" s="23" t="s">
         <v>8</v>
       </c>
       <c r="B46" s="6" t="s">
@@ -3143,16 +3246,16 @@
       <c r="C46" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D46" s="52" t="s">
-        <v>16</v>
-      </c>
-      <c r="E46" s="53">
+      <c r="D46" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="E46" s="93">
         <v>91203</v>
       </c>
-      <c r="F46" s="54">
+      <c r="F46" s="71">
         <v>1570</v>
       </c>
-      <c r="G46" s="6">
+      <c r="G46" s="72">
         <v>15</v>
       </c>
       <c r="H46" s="6" t="s">
@@ -3161,81 +3264,81 @@
       <c r="I46" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="J46" s="27" t="s">
-        <v>140</v>
-      </c>
-      <c r="K46" s="28" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A47" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B47" s="47" t="s">
+      <c r="J46" s="24" t="s">
+        <v>140</v>
+      </c>
+      <c r="K46" s="25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B47" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="C47" s="47" t="s">
+      <c r="C47" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="D47" s="55" t="s">
-        <v>16</v>
-      </c>
-      <c r="E47" s="56">
+      <c r="D47" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="E47" s="94">
         <v>91205</v>
       </c>
-      <c r="F47" s="57">
+      <c r="F47" s="73">
         <v>1525</v>
       </c>
-      <c r="G47" s="47">
+      <c r="G47" s="74">
         <v>15</v>
       </c>
-      <c r="H47" s="47" t="s">
+      <c r="H47" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="I47" s="47" t="s">
+      <c r="I47" s="33" t="s">
         <v>110</v>
       </c>
-      <c r="J47" s="14" t="s">
-        <v>140</v>
-      </c>
-      <c r="K47" s="15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A48" s="58" t="s">
+      <c r="J47" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="K47" s="14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="B48" s="59">
-        <v>16</v>
-      </c>
-      <c r="C48" s="59"/>
-      <c r="D48" s="59" t="s">
+      <c r="B48" s="37">
+        <v>16</v>
+      </c>
+      <c r="C48" s="37"/>
+      <c r="D48" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="E48" s="59">
+      <c r="E48" s="75">
         <v>4061</v>
       </c>
-      <c r="F48" s="59">
+      <c r="F48" s="75">
         <v>1740</v>
       </c>
-      <c r="G48" s="59">
+      <c r="G48" s="75">
         <v>20</v>
       </c>
-      <c r="H48" s="59" t="s">
+      <c r="H48" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="I48" s="59" t="s">
+      <c r="I48" s="37" t="s">
         <v>131</v>
       </c>
-      <c r="J48" s="59" t="s">
-        <v>140</v>
-      </c>
-      <c r="K48" s="60"/>
-    </row>
-    <row r="49" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A49" s="33" t="s">
+      <c r="J48" s="37" t="s">
+        <v>140</v>
+      </c>
+      <c r="K48" s="38"/>
+    </row>
+    <row r="49" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="29" t="s">
         <v>8</v>
       </c>
       <c r="B49" s="2">
@@ -3245,13 +3348,13 @@
       <c r="D49" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E49" s="2">
+      <c r="E49" s="60">
         <v>8126</v>
       </c>
-      <c r="F49" s="2">
+      <c r="F49" s="60">
         <v>1725</v>
       </c>
-      <c r="G49" s="2">
+      <c r="G49" s="60">
         <v>30</v>
       </c>
       <c r="H49" s="2" t="s">
@@ -3263,75 +3366,75 @@
       <c r="J49" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="K49" s="34"/>
-    </row>
-    <row r="50" spans="1:11">
-      <c r="A50" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="B50" s="23">
+      <c r="K49" s="30"/>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A50" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B50" s="20">
         <v>5</v>
       </c>
-      <c r="C50" s="23"/>
-      <c r="D50" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="E50" s="8">
+      <c r="C50" s="20"/>
+      <c r="D50" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="E50" s="65">
         <v>87157</v>
       </c>
-      <c r="F50" s="23">
+      <c r="F50" s="70">
         <v>1725</v>
       </c>
-      <c r="G50" s="23">
+      <c r="G50" s="70">
         <v>15</v>
       </c>
-      <c r="H50" s="23" t="s">
+      <c r="H50" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="I50" s="23" t="s">
+      <c r="I50" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="J50" s="23" t="s">
-        <v>140</v>
-      </c>
-      <c r="K50" s="24" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A51" s="61" t="s">
-        <v>8</v>
-      </c>
-      <c r="B51" s="62">
+      <c r="J50" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="K50" s="21" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="B51" s="40">
         <v>5</v>
       </c>
-      <c r="C51" s="62"/>
-      <c r="D51" s="62" t="s">
-        <v>16</v>
-      </c>
-      <c r="E51" s="63">
+      <c r="C51" s="40"/>
+      <c r="D51" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="E51" s="95">
         <v>87167</v>
       </c>
-      <c r="F51" s="62">
+      <c r="F51" s="76">
         <v>1575</v>
       </c>
-      <c r="G51" s="62">
+      <c r="G51" s="76">
         <v>15</v>
       </c>
-      <c r="H51" s="62" t="s">
+      <c r="H51" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="I51" s="62" t="s">
+      <c r="I51" s="40" t="s">
         <v>108</v>
       </c>
-      <c r="J51" s="62" t="s">
-        <v>140</v>
-      </c>
-      <c r="K51" s="64" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11">
+      <c r="J51" s="40" t="s">
+        <v>140</v>
+      </c>
+      <c r="K51" s="41" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" s="10" t="s">
         <v>8</v>
       </c>
@@ -3342,13 +3445,13 @@
       <c r="D52" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E52" s="35">
+      <c r="E52" s="61">
         <v>105384</v>
       </c>
-      <c r="F52" s="9">
+      <c r="F52" s="56">
         <v>1720</v>
       </c>
-      <c r="G52" s="9">
+      <c r="G52" s="56">
         <v>15</v>
       </c>
       <c r="H52" s="9" t="s">
@@ -3364,41 +3467,41 @@
         <v>12</v>
       </c>
     </row>
-    <row r="53" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A53" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B53" s="14">
+    <row r="53" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B53" s="13">
         <v>62</v>
       </c>
-      <c r="C53" s="14"/>
-      <c r="D53" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="E53" s="38">
+      <c r="C53" s="13"/>
+      <c r="D53" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E53" s="64">
         <v>105383</v>
       </c>
-      <c r="F53" s="14">
+      <c r="F53" s="58">
         <v>1580</v>
       </c>
-      <c r="G53" s="14">
+      <c r="G53" s="58">
         <v>15</v>
       </c>
-      <c r="H53" s="14" t="s">
+      <c r="H53" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="I53" s="14" t="s">
+      <c r="I53" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="J53" s="14" t="s">
-        <v>140</v>
-      </c>
-      <c r="K53" s="15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11">
-      <c r="A54" s="26" t="s">
+      <c r="J53" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="K53" s="14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A54" s="23" t="s">
         <v>8</v>
       </c>
       <c r="B54" s="6">
@@ -3410,13 +3513,13 @@
       <c r="D54" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E54" s="65" t="s">
+      <c r="E54" s="96" t="s">
         <v>30</v>
       </c>
-      <c r="F54" s="6">
+      <c r="F54" s="72">
         <v>1690</v>
       </c>
-      <c r="G54" s="6">
+      <c r="G54" s="72">
         <v>26</v>
       </c>
       <c r="H54" s="6" t="s">
@@ -3425,49 +3528,49 @@
       <c r="I54" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="J54" s="27" t="s">
-        <v>140</v>
-      </c>
-      <c r="K54" s="28" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A55" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="B55" s="31">
+      <c r="J54" s="24" t="s">
+        <v>140</v>
+      </c>
+      <c r="K54" s="25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="B55" s="27">
         <v>28</v>
       </c>
-      <c r="C55" s="31" t="s">
+      <c r="C55" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D55" s="31" t="s">
+      <c r="D55" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="E55" s="66" t="s">
+      <c r="E55" s="97" t="s">
         <v>31</v>
       </c>
-      <c r="F55" s="37">
+      <c r="F55" s="63">
         <v>1687</v>
       </c>
-      <c r="G55" s="67">
+      <c r="G55" s="77">
         <v>25</v>
       </c>
-      <c r="H55" s="67" t="s">
+      <c r="H55" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="I55" s="67" t="s">
+      <c r="I55" s="42" t="s">
         <v>113</v>
       </c>
-      <c r="J55" s="31" t="s">
-        <v>140</v>
-      </c>
-      <c r="K55" s="32" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11">
+      <c r="J55" s="27" t="s">
+        <v>140</v>
+      </c>
+      <c r="K55" s="28" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" s="10" t="s">
         <v>8</v>
       </c>
@@ -3478,13 +3581,13 @@
       <c r="D56" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E56" s="68">
+      <c r="E56" s="98">
         <v>67236</v>
       </c>
-      <c r="F56" s="9">
+      <c r="F56" s="56">
         <v>1615</v>
       </c>
-      <c r="G56" s="9">
+      <c r="G56" s="56">
         <v>20</v>
       </c>
       <c r="H56" s="9" t="s">
@@ -3500,41 +3603,41 @@
         <v>12</v>
       </c>
     </row>
-    <row r="57" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A57" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B57" s="14">
+    <row r="57" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B57" s="13">
         <v>38</v>
       </c>
-      <c r="C57" s="14"/>
-      <c r="D57" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="E57" s="69">
+      <c r="C57" s="13"/>
+      <c r="D57" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E57" s="99">
         <v>67954</v>
       </c>
-      <c r="F57" s="14">
+      <c r="F57" s="58">
         <v>1465</v>
       </c>
-      <c r="G57" s="14">
+      <c r="G57" s="58">
         <v>15</v>
       </c>
-      <c r="H57" s="14" t="s">
+      <c r="H57" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="I57" s="14" t="s">
+      <c r="I57" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="J57" s="14" t="s">
-        <v>140</v>
-      </c>
-      <c r="K57" s="15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A58" s="33" t="s">
+      <c r="J57" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="K57" s="14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="29" t="s">
         <v>8</v>
       </c>
       <c r="B58" s="2">
@@ -3544,13 +3647,13 @@
       <c r="D58" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E58" s="70">
+      <c r="E58" s="100">
         <v>87168</v>
       </c>
-      <c r="F58" s="2">
+      <c r="F58" s="60">
         <v>1580</v>
       </c>
-      <c r="G58" s="2">
+      <c r="G58" s="60">
         <v>15</v>
       </c>
       <c r="H58" s="2" t="s">
@@ -3562,177 +3665,177 @@
       <c r="J58" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="K58" s="34" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11">
-      <c r="A59" s="21" t="s">
+      <c r="K58" s="30" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A59" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="B59" s="23">
+      <c r="B59" s="20">
         <v>51</v>
       </c>
-      <c r="C59" s="23" t="s">
+      <c r="C59" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="D59" s="71" t="s">
-        <v>16</v>
-      </c>
-      <c r="E59" s="23">
+      <c r="D59" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="E59" s="70">
         <v>170158</v>
       </c>
-      <c r="F59" s="23">
+      <c r="F59" s="70">
         <v>1580</v>
       </c>
-      <c r="G59" s="23">
+      <c r="G59" s="70">
         <v>15</v>
       </c>
-      <c r="H59" s="23" t="s">
+      <c r="H59" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="I59" s="23" t="s">
+      <c r="I59" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="J59" s="23" t="s">
-        <v>140</v>
-      </c>
-      <c r="K59" s="24"/>
-    </row>
-    <row r="60" spans="1:11">
-      <c r="A60" s="26" t="s">
+      <c r="J59" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="K59" s="21"/>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A60" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="B60" s="27">
+      <c r="B60" s="24">
         <v>51</v>
       </c>
-      <c r="C60" s="27" t="s">
+      <c r="C60" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="D60" s="27" t="s">
+      <c r="D60" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="E60" s="27">
+      <c r="E60" s="57">
         <v>6739</v>
       </c>
-      <c r="F60" s="27">
+      <c r="F60" s="57">
         <v>1515</v>
       </c>
-      <c r="G60" s="27">
+      <c r="G60" s="57">
         <v>20</v>
       </c>
-      <c r="H60" s="27" t="s">
+      <c r="H60" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="I60" s="27" t="s">
+      <c r="I60" s="24" t="s">
         <v>132</v>
       </c>
-      <c r="J60" s="27" t="s">
+      <c r="J60" s="24" t="s">
         <v>155</v>
       </c>
-      <c r="K60" s="28"/>
-    </row>
-    <row r="61" spans="1:11">
-      <c r="A61" s="26" t="s">
+      <c r="K60" s="25"/>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A61" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="B61" s="27">
+      <c r="B61" s="24">
         <v>51</v>
       </c>
-      <c r="C61" s="27" t="s">
+      <c r="C61" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="D61" s="27" t="s">
+      <c r="D61" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="E61" s="27">
+      <c r="E61" s="57">
         <v>4059</v>
       </c>
-      <c r="F61" s="27">
+      <c r="F61" s="57">
         <v>1370</v>
       </c>
-      <c r="G61" s="27">
+      <c r="G61" s="57">
         <v>20</v>
       </c>
-      <c r="H61" s="27" t="s">
+      <c r="H61" s="24" t="s">
         <v>133</v>
       </c>
-      <c r="I61" s="27" t="s">
+      <c r="I61" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="J61" s="27" t="s">
-        <v>140</v>
-      </c>
-      <c r="K61" s="28"/>
-    </row>
-    <row r="62" spans="1:11">
-      <c r="A62" s="26" t="s">
+      <c r="J61" s="24" t="s">
+        <v>140</v>
+      </c>
+      <c r="K61" s="25"/>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A62" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="B62" s="27">
+      <c r="B62" s="24">
         <v>51</v>
       </c>
-      <c r="C62" s="27" t="s">
+      <c r="C62" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="D62" s="52" t="s">
-        <v>16</v>
-      </c>
-      <c r="E62" s="27">
+      <c r="D62" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="E62" s="57">
         <v>174065</v>
       </c>
-      <c r="F62" s="27">
+      <c r="F62" s="57">
         <v>1320</v>
       </c>
-      <c r="G62" s="27">
+      <c r="G62" s="57">
         <v>25</v>
       </c>
-      <c r="H62" s="27" t="s">
+      <c r="H62" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="I62" s="27" t="s">
+      <c r="I62" s="24" t="s">
         <v>120</v>
       </c>
-      <c r="J62" s="27" t="s">
-        <v>140</v>
-      </c>
-      <c r="K62" s="28"/>
-    </row>
-    <row r="63" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A63" s="13" t="s">
+      <c r="J62" s="24" t="s">
+        <v>140</v>
+      </c>
+      <c r="K62" s="25"/>
+    </row>
+    <row r="63" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B63" s="14">
+      <c r="B63" s="13">
         <v>51</v>
       </c>
-      <c r="C63" s="14" t="s">
+      <c r="C63" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="D63" s="14" t="s">
+      <c r="D63" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="E63" s="14">
+      <c r="E63" s="58">
         <v>4060</v>
       </c>
-      <c r="F63" s="14">
+      <c r="F63" s="58">
         <v>1200</v>
       </c>
-      <c r="G63" s="14">
+      <c r="G63" s="58">
         <v>20</v>
       </c>
-      <c r="H63" s="14" t="s">
+      <c r="H63" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="I63" s="14" t="s">
+      <c r="I63" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="J63" s="14" t="s">
-        <v>140</v>
-      </c>
-      <c r="K63" s="15"/>
-    </row>
-    <row r="64" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A64" s="33" t="s">
+      <c r="J63" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="K63" s="14"/>
+    </row>
+    <row r="64" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="29" t="s">
         <v>13</v>
       </c>
       <c r="B64" s="2">
@@ -3741,16 +3844,16 @@
       <c r="C64" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D64" s="72" t="s">
-        <v>16</v>
-      </c>
-      <c r="E64" s="2">
+      <c r="D64" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="E64" s="60">
         <v>170156</v>
       </c>
-      <c r="F64" s="2">
+      <c r="F64" s="60">
         <v>1550</v>
       </c>
-      <c r="G64" s="2">
+      <c r="G64" s="60">
         <v>15</v>
       </c>
       <c r="H64" s="2" t="s">
@@ -3762,10 +3865,10 @@
       <c r="J64" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="K64" s="34"/>
-    </row>
-    <row r="65" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A65" s="33" t="s">
+      <c r="K64" s="30"/>
+    </row>
+    <row r="65" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="29" t="s">
         <v>8</v>
       </c>
       <c r="B65" s="2" t="s">
@@ -3775,13 +3878,13 @@
       <c r="D65" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E65" s="2">
+      <c r="E65" s="60">
         <v>6740</v>
       </c>
-      <c r="F65" s="2">
+      <c r="F65" s="60">
         <v>1515</v>
       </c>
-      <c r="G65" s="2">
+      <c r="G65" s="60">
         <v>25</v>
       </c>
       <c r="H65" s="2" t="s">
@@ -3790,13 +3893,13 @@
       <c r="I65" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="J65" s="73" t="s">
+      <c r="J65" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="K65" s="34"/>
-    </row>
-    <row r="66" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A66" s="33" t="s">
+      <c r="K65" s="30"/>
+    </row>
+    <row r="66" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="29" t="s">
         <v>8</v>
       </c>
       <c r="B66" s="2">
@@ -3808,13 +3911,13 @@
       <c r="D66" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E66" s="2">
+      <c r="E66" s="60">
         <v>105374</v>
       </c>
-      <c r="F66" s="2">
+      <c r="F66" s="60">
         <v>1510</v>
       </c>
-      <c r="G66" s="2">
+      <c r="G66" s="60">
         <v>15</v>
       </c>
       <c r="H66" s="2" t="s">
@@ -3826,111 +3929,111 @@
       <c r="J66" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="K66" s="34" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11">
-      <c r="A67" s="21" t="s">
+      <c r="K66" s="30" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A67" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="B67" s="23">
+      <c r="B67" s="20">
         <v>127</v>
       </c>
-      <c r="C67" s="23" t="s">
+      <c r="C67" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="D67" s="23" t="s">
+      <c r="D67" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="E67" s="23">
+      <c r="E67" s="70">
         <v>2643</v>
       </c>
-      <c r="F67" s="23">
+      <c r="F67" s="70">
         <v>1490</v>
       </c>
-      <c r="G67" s="23">
+      <c r="G67" s="70">
         <v>30</v>
       </c>
-      <c r="H67" s="23" t="s">
+      <c r="H67" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="I67" s="23" t="s">
+      <c r="I67" s="20" t="s">
         <v>128</v>
       </c>
-      <c r="J67" s="23" t="s">
-        <v>140</v>
-      </c>
-      <c r="K67" s="24"/>
-    </row>
-    <row r="68" spans="1:11">
-      <c r="A68" s="26" t="s">
+      <c r="J67" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="K67" s="21"/>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A68" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="B68" s="27">
+      <c r="B68" s="24">
         <v>127</v>
       </c>
-      <c r="C68" s="27" t="s">
+      <c r="C68" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="D68" s="27" t="s">
+      <c r="D68" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="E68" s="27">
+      <c r="E68" s="57">
         <v>2662</v>
       </c>
-      <c r="F68" s="27">
+      <c r="F68" s="57">
         <v>1410</v>
       </c>
-      <c r="G68" s="27">
+      <c r="G68" s="57">
         <v>25</v>
       </c>
-      <c r="H68" s="27" t="s">
+      <c r="H68" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="I68" s="27" t="s">
+      <c r="I68" s="24" t="s">
         <v>136</v>
       </c>
-      <c r="J68" s="27" t="s">
-        <v>140</v>
-      </c>
-      <c r="K68" s="28"/>
-    </row>
-    <row r="69" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A69" s="30" t="s">
+      <c r="J68" s="24" t="s">
+        <v>140</v>
+      </c>
+      <c r="K68" s="25"/>
+    </row>
+    <row r="69" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="B69" s="31">
+      <c r="B69" s="27">
         <v>127</v>
       </c>
-      <c r="C69" s="31" t="s">
+      <c r="C69" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D69" s="31" t="s">
+      <c r="D69" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="E69" s="31">
+      <c r="E69" s="59">
         <v>2642</v>
       </c>
-      <c r="F69" s="31">
+      <c r="F69" s="59">
         <v>1340</v>
       </c>
-      <c r="G69" s="31">
+      <c r="G69" s="59">
         <v>25</v>
       </c>
-      <c r="H69" s="31" t="s">
+      <c r="H69" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="I69" s="31" t="s">
+      <c r="I69" s="27" t="s">
         <v>137</v>
       </c>
-      <c r="J69" s="31" t="s">
-        <v>140</v>
-      </c>
-      <c r="K69" s="32"/>
-    </row>
-    <row r="70" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A70" s="33" t="s">
+      <c r="J69" s="27" t="s">
+        <v>140</v>
+      </c>
+      <c r="K69" s="28"/>
+    </row>
+    <row r="70" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="29" t="s">
         <v>8</v>
       </c>
       <c r="B70" s="2">
@@ -3940,13 +4043,13 @@
       <c r="D70" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E70" s="2">
+      <c r="E70" s="60">
         <v>67237</v>
       </c>
-      <c r="F70" s="2">
+      <c r="F70" s="60">
         <v>1440</v>
       </c>
-      <c r="G70" s="2">
+      <c r="G70" s="60">
         <v>20</v>
       </c>
       <c r="H70" s="2" t="s">
@@ -3958,12 +4061,12 @@
       <c r="J70" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="K70" s="34" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A71" s="74" t="s">
+      <c r="K70" s="30" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="46" t="s">
         <v>13</v>
       </c>
       <c r="B71" s="3">
@@ -3975,27 +4078,27 @@
       <c r="D71" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E71" s="3">
+      <c r="E71" s="78">
         <v>2654</v>
       </c>
-      <c r="F71" s="3">
+      <c r="F71" s="78">
         <v>1405</v>
       </c>
-      <c r="G71" s="3">
+      <c r="G71" s="78">
         <v>20</v>
       </c>
-      <c r="H71" s="75" t="s">
+      <c r="H71" s="47" t="s">
         <v>69</v>
       </c>
-      <c r="I71" s="76" t="s">
+      <c r="I71" s="48" t="s">
         <v>138</v>
       </c>
       <c r="J71" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="K71" s="77"/>
-    </row>
-    <row r="72" spans="1:11">
+      <c r="K71" s="49"/>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A72" s="10" t="s">
         <v>8</v>
       </c>
@@ -4006,13 +4109,13 @@
       <c r="D72" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E72" s="9">
+      <c r="E72" s="56">
         <v>8120</v>
       </c>
-      <c r="F72" s="9">
+      <c r="F72" s="56">
         <v>1385</v>
       </c>
-      <c r="G72" s="9">
+      <c r="G72" s="56">
         <v>20</v>
       </c>
       <c r="H72" s="4" t="s">
@@ -4026,74 +4129,74 @@
       </c>
       <c r="K72" s="11"/>
     </row>
-    <row r="73" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A73" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B73" s="14">
+    <row r="73" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B73" s="13">
         <v>54</v>
       </c>
-      <c r="C73" s="14"/>
-      <c r="D73" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="E73" s="14">
+      <c r="C73" s="13"/>
+      <c r="D73" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E73" s="58">
         <v>87159</v>
       </c>
-      <c r="F73" s="14">
+      <c r="F73" s="58">
         <v>1380</v>
       </c>
-      <c r="G73" s="14">
+      <c r="G73" s="58">
         <v>15</v>
       </c>
-      <c r="H73" s="14" t="s">
+      <c r="H73" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="I73" s="14" t="s">
+      <c r="I73" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="J73" s="14" t="s">
-        <v>140</v>
-      </c>
-      <c r="K73" s="15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A74" s="58" t="s">
-        <v>8</v>
-      </c>
-      <c r="B74" s="59">
+      <c r="J73" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="K73" s="14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="B74" s="37">
         <v>13</v>
       </c>
-      <c r="C74" s="59"/>
-      <c r="D74" s="59" t="s">
-        <v>16</v>
-      </c>
-      <c r="E74" s="59">
+      <c r="C74" s="37"/>
+      <c r="D74" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="E74" s="75">
         <v>105425</v>
       </c>
-      <c r="F74" s="59">
+      <c r="F74" s="75">
         <v>1320</v>
       </c>
-      <c r="G74" s="59">
+      <c r="G74" s="75">
         <v>20</v>
       </c>
-      <c r="H74" s="59" t="s">
+      <c r="H74" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="I74" s="59" t="s">
+      <c r="I74" s="37" t="s">
         <v>120</v>
       </c>
-      <c r="J74" s="59" t="s">
-        <v>140</v>
-      </c>
-      <c r="K74" s="78" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A75" s="74" t="s">
+      <c r="J74" s="37" t="s">
+        <v>140</v>
+      </c>
+      <c r="K74" s="50" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="46" t="s">
         <v>8</v>
       </c>
       <c r="B75" s="3">
@@ -4103,13 +4206,13 @@
       <c r="D75" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E75" s="3">
+      <c r="E75" s="78">
         <v>42813</v>
       </c>
-      <c r="F75" s="3">
+      <c r="F75" s="78">
         <v>1320</v>
       </c>
-      <c r="G75" s="3">
+      <c r="G75" s="78">
         <v>15</v>
       </c>
       <c r="H75" s="3" t="s">
@@ -4121,12 +4224,12 @@
       <c r="J75" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="K75" s="79" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A76" s="33" t="s">
+      <c r="K75" s="51" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="29" t="s">
         <v>8</v>
       </c>
       <c r="B76" s="2">
@@ -4136,13 +4239,13 @@
       <c r="D76" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E76" s="2">
+      <c r="E76" s="60">
         <v>42812</v>
       </c>
-      <c r="F76" s="2">
+      <c r="F76" s="60">
         <v>1310</v>
       </c>
-      <c r="G76" s="2">
+      <c r="G76" s="60">
         <v>15</v>
       </c>
       <c r="H76" s="2" t="s">
@@ -4154,12 +4257,12 @@
       <c r="J76" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="K76" s="34" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A77" s="33" t="s">
+      <c r="K76" s="30" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="29" t="s">
         <v>8</v>
       </c>
       <c r="B77" s="2">
@@ -4171,13 +4274,13 @@
       <c r="D77" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E77" s="2">
+      <c r="E77" s="60">
         <v>105379</v>
       </c>
-      <c r="F77" s="2">
+      <c r="F77" s="60">
         <v>1290</v>
       </c>
-      <c r="G77" s="2">
+      <c r="G77" s="60">
         <v>15</v>
       </c>
       <c r="H77" s="2" t="s">
@@ -4189,12 +4292,12 @@
       <c r="J77" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="K77" s="34" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A78" s="74" t="s">
+      <c r="K77" s="30" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="46" t="s">
         <v>8</v>
       </c>
       <c r="B78" s="3">
@@ -4204,13 +4307,13 @@
       <c r="D78" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E78" s="3">
+      <c r="E78" s="78">
         <v>8125</v>
       </c>
-      <c r="F78" s="3">
+      <c r="F78" s="78">
         <v>1280</v>
       </c>
-      <c r="G78" s="3">
+      <c r="G78" s="78">
         <v>20</v>
       </c>
       <c r="H78" s="3" t="s">
@@ -4222,9 +4325,9 @@
       <c r="J78" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="K78" s="77"/>
-    </row>
-    <row r="79" spans="1:11">
+      <c r="K78" s="49"/>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A79" s="10" t="s">
         <v>8</v>
       </c>
@@ -4237,13 +4340,13 @@
       <c r="D79" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E79" s="9">
+      <c r="E79" s="56">
         <v>105382</v>
       </c>
-      <c r="F79" s="9">
+      <c r="F79" s="56">
         <v>1255</v>
       </c>
-      <c r="G79" s="9">
+      <c r="G79" s="56">
         <v>15</v>
       </c>
       <c r="H79" s="9" t="s">
@@ -4259,43 +4362,43 @@
         <v>12</v>
       </c>
     </row>
-    <row r="80" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A80" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B80" s="14">
+    <row r="80" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B80" s="13">
         <v>37</v>
       </c>
-      <c r="C80" s="14" t="s">
+      <c r="C80" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="D80" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="E80" s="14">
+      <c r="D80" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E80" s="58">
         <v>102521</v>
       </c>
-      <c r="F80" s="14">
+      <c r="F80" s="58">
         <v>1250</v>
       </c>
-      <c r="G80" s="14">
+      <c r="G80" s="58">
         <v>15</v>
       </c>
-      <c r="H80" s="14" t="s">
+      <c r="H80" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="I80" s="14" t="s">
+      <c r="I80" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="J80" s="14" t="s">
-        <v>140</v>
-      </c>
-      <c r="K80" s="15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A81" s="33" t="s">
+      <c r="J80" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="K80" s="14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="29" t="s">
         <v>8</v>
       </c>
       <c r="B81" s="2">
@@ -4305,13 +4408,13 @@
       <c r="D81" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E81" s="2">
+      <c r="E81" s="60">
         <v>105380</v>
       </c>
-      <c r="F81" s="2">
+      <c r="F81" s="60">
         <v>1220</v>
       </c>
-      <c r="G81" s="2">
+      <c r="G81" s="60">
         <v>15</v>
       </c>
       <c r="H81" s="2" t="s">
@@ -4323,7 +4426,7 @@
       <c r="J81" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="K81" s="34" t="s">
+      <c r="K81" s="30" t="s">
         <v>12</v>
       </c>
     </row>
